--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">index</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">Nivona CafeRomatica NICR 759</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.ceneo.pl/81914417</t>
   </si>
   <si>
@@ -149,21 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ceneo.pl/70174330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCR756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivona CafeRomatica NICR 756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCR791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivona CafeRomatica NICR 791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ceneo.pl/135688195</t>
   </si>
   <si>
     <t xml:space="preserve">NCR695</t>
@@ -314,13 +296,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -423,7 +409,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,321 +423,267 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -769,14 +701,12 @@
     <hyperlink ref="D12" r:id="rId11" display="https://www.ceneo.pl/117115884"/>
     <hyperlink ref="D13" r:id="rId12" display="https://www.ceneo.pl/117115886"/>
     <hyperlink ref="D14" r:id="rId13" display="https://www.ceneo.pl/70174330"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://www.ceneo.pl/81914417"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://www.ceneo.pl/135688195"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://www.ceneo.pl/141841866"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://www.ceneo.pl/140246853"/>
-    <hyperlink ref="D19" r:id="rId18" location="tag=OneClickSearch" display="https://www.ceneo.pl/92805930"/>
-    <hyperlink ref="D20" r:id="rId19" location="tag=OneClickSearch" display="https://www.ceneo.pl/86384099"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://www.ceneo.pl/159105550"/>
-    <hyperlink ref="D22" r:id="rId21" location="" display="https://www.ceneo.pl/159105549"/>
+    <hyperlink ref="D17" r:id="rId14" display="https://www.ceneo.pl/141841866"/>
+    <hyperlink ref="D18" r:id="rId15" display="https://www.ceneo.pl/140246853"/>
+    <hyperlink ref="D19" r:id="rId16" location="tag=OneClickSearch" display="https://www.ceneo.pl/92805930"/>
+    <hyperlink ref="D20" r:id="rId17" location="tag=OneClickSearch" display="https://www.ceneo.pl/86384099"/>
+    <hyperlink ref="D21" r:id="rId18" display="https://www.ceneo.pl/159105550"/>
+    <hyperlink ref="D22" r:id="rId19" display="https://www.ceneo.pl/159105549"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
